--- a/Tabela/Cabo Frio/Cabo Frio-5.xlsx
+++ b/Tabela/Cabo Frio/Cabo Frio-5.xlsx
@@ -14,375 +14,396 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="123">
-  <si>
-    <t>em construção</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>R$ 1.481.997</t>
+    <t>pronto para morar</t>
   </si>
   <si>
     <t>super destaque</t>
   </si>
   <si>
-    <t>R$ 215.000</t>
+    <t>R$ 230.000</t>
+  </si>
+  <si>
+    <t>destaque</t>
+  </si>
+  <si>
+    <t>R$ 105.000</t>
   </si>
   <si>
     <t>R$ 380.000</t>
   </si>
   <si>
-    <t>destaque</t>
-  </si>
-  <si>
-    <t>R$ 370.000</t>
-  </si>
-  <si>
-    <t>R$ 390.000</t>
-  </si>
-  <si>
-    <t>R$ 220.000</t>
-  </si>
-  <si>
-    <t>R$ 105.000</t>
-  </si>
-  <si>
-    <t>R$ 125.000</t>
-  </si>
-  <si>
-    <t>Um Exclusivo Condomínio Clube para Toda a Família, em um dos Endereços Mais Nobres de Vitória.</t>
-  </si>
-  <si>
-    <t>R$ 450.000</t>
-  </si>
-  <si>
-    <t>R$ 2.900.000</t>
-  </si>
-  <si>
-    <t>R$ 229.999</t>
-  </si>
-  <si>
-    <t>IPTU R$ 45</t>
-  </si>
-  <si>
-    <t>IPTU R$ 300</t>
-  </si>
-  <si>
-    <t>R$ 204.999</t>
-  </si>
-  <si>
-    <t>CÓDIGO DO ANÚNCIO: CA0551</t>
+    <t>R$ 50.000</t>
+  </si>
+  <si>
+    <t>R$ 170.000</t>
+  </si>
+  <si>
+    <t>R$ 200.000</t>
+  </si>
+  <si>
+    <t>R$ 140.000</t>
+  </si>
+  <si>
+    <t>R$ 500.000</t>
+  </si>
+  <si>
+    <t>R$ 190.000</t>
   </si>
   <si>
     <t>R$ 160.000</t>
   </si>
   <si>
-    <t>condomínio R$ 170</t>
-  </si>
-  <si>
-    <t>IPTU R$ 400</t>
-  </si>
-  <si>
-    <t>R$ 159.999</t>
-  </si>
-  <si>
-    <t>Tenho o imóvel perfeito para você!!!😍</t>
-  </si>
-  <si>
-    <t>R$ 550.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 436 IPTU R$ 74</t>
-  </si>
-  <si>
-    <t>R$ 195.000</t>
-  </si>
-  <si>
-    <t>R$ 190.000</t>
-  </si>
-  <si>
-    <t>𝐂𝐡𝐞𝐠𝐨𝐮 𝐚 𝐬𝐮𝐚 𝐡𝐨𝐫𝐚 𝐝𝐞 𝐦𝐨𝐫𝐚𝐫 𝐝𝐞 𝐟𝐫𝐞𝐧𝐭𝐞 𝐩𝐚𝐫𝐚 𝐨 𝐦𝐚𝐫 !</t>
-  </si>
-  <si>
-    <t>R$ 135.000</t>
-  </si>
-  <si>
-    <t>Entre em contato para mais informações:</t>
-  </si>
-  <si>
-    <t>R$ 235.000</t>
-  </si>
-  <si>
-    <t>A casa no bairro Nova Califórnia (Tamoios) com 150 metros quadrados com 2 quartos sendo 1 suite e 2 banheirosFica em um condomínio fechado.</t>
-  </si>
-  <si>
-    <t>condomínio R$ 533 IPTU R$ 1.200</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.860 IPTU R$ 4.950</t>
+    <t>R$ 165.000</t>
+  </si>
+  <si>
+    <t>R$ 1.003.400</t>
+  </si>
+  <si>
+    <t>R$ 850.000</t>
+  </si>
+  <si>
+    <t>R$ 130.000</t>
+  </si>
+  <si>
+    <t>R$ 700.000</t>
+  </si>
+  <si>
+    <t>𝑽𝒆𝒏𝒅𝒆-𝒔𝒆 𝒐́𝒕𝒊𝒎𝒂 𝒄𝒂𝒔𝒂 𝒆𝒎 𝒄𝒐𝒏𝒅𝒐𝒎𝒊𝒏𝒊𝒐 𝒇𝒆𝒄𝒉𝒂𝒅𝒐. 🏠</t>
+  </si>
+  <si>
+    <t>R$ 240.000</t>
+  </si>
+  <si>
+    <t>TBF- Este Imóvel está disponível na planta , Cuidamos de todo o processo até a entrega das chaves</t>
+  </si>
+  <si>
+    <t>R$ 290.000</t>
+  </si>
+  <si>
+    <t>Imóvel Disponível em Frase de Construção.</t>
+  </si>
+  <si>
+    <t>Linda Tríplex em Tamoios 2⁰ distrito de Cabo Frio</t>
+  </si>
+  <si>
+    <t>Vocês não imaginam o que uma bela vista pode proporcionar.</t>
+  </si>
+  <si>
+    <t>condomínioR$ 150 IPTU R$ 300</t>
+  </si>
+  <si>
+    <t>Linda Casa em Tamoios 2⁰ Distrito de Cabo Frio</t>
+  </si>
+  <si>
+    <t>deixe seu numero nossa equipe entrará em contato com você!</t>
+  </si>
+  <si>
+    <t>R$ 270.000</t>
+  </si>
+  <si>
+    <t>TBF- A Imobiliária Confiança oferece uma excelente oportunidade!! CASA PRONTA PARA MORAR ( CENTRO HIPICO)</t>
+  </si>
+  <si>
+    <t>Cresci RJ-008451/O</t>
+  </si>
+  <si>
+    <t>R$ 265.000</t>
+  </si>
+  <si>
+    <t>CASA NA PRAIA</t>
+  </si>
+  <si>
+    <t>Imóvel composto</t>
+  </si>
+  <si>
+    <t>Linda casa de 4 quartos em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Casa linear recém construída em condomínio fechado, lado praia , composta por 2 quartos sendo 1 suíte, banheiro social, cozinha americana, sala de estar e varanda</t>
+  </si>
+  <si>
+    <t>Uma vida verdadeiramente prime espera por você neste belíssimo 2 quartos, localizado no coração da Praia do Canto!</t>
+  </si>
+  <si>
+    <t>IPTU R$ 1.166</t>
+  </si>
+  <si>
+    <t>Excelente casa com 2 quartos, piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 694 IPTU R$ 1.488</t>
+  </si>
+  <si>
+    <t>📍Localizada no Condomínio Residencial Unamar.</t>
+  </si>
+  <si>
+    <t>Imóvel lado praia no condomínio Terra Mar .</t>
+  </si>
+  <si>
+    <t>Bela casa com 3 quartos, piscina, área gourmet e quintal enorme em Unamar - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Traz paz, tranquilidade, satisfação e muita alegria.</t>
+  </si>
+  <si>
+    <t>A casa no bairro Nova Califórnia (Tamoios) possui 80 metros quadrados com 2 quartos e 2 banheiros, precisa de pequena reforma!</t>
+  </si>
+  <si>
+    <t>Linda casa pronta para morar com 2 quartos, área gourmet e piscina em Unamar - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>Excelente Duplex composto por:</t>
+  </si>
+  <si>
+    <t>Sala com cozinha americana</t>
+  </si>
+  <si>
+    <t>mais</t>
+  </si>
+  <si>
+    <t>Com um espaço incrível, essa casa vai te proporcionar momentos ainda mais memoráveis com seus amigos e familiares!</t>
+  </si>
+  <si>
+    <t>Sempre quis morar a poucos passos da Praia do Forte? Esta é a sua chance!!!</t>
+  </si>
+  <si>
+    <t>Composta por : 𝟑 𝐐𝐮𝐚𝐫𝐭𝐨𝐬 𝐬𝐞𝐧𝐝𝐨 �...</t>
+  </si>
+  <si>
+    <t>CASA COM 2 QUARTOS SENDO , SALA, COZINHA AMERICANA, BANHEIRO SOCIAL, ÁREA DE SERVIÇO, BANHEIRO EXTERNO, ÁREA GOURMET, E VAGA PARA...</t>
+  </si>
+  <si>
+    <t>Olá Esta a Procura de Imóvel Lado Praia na Região dos Lagos ? irei agora Lhe Apresenta este Tríplex com 3 quartos sendo 3...</t>
+  </si>
+  <si>
+    <t>Essa linda vista pode ser sua!!!</t>
+  </si>
+  <si>
+    <t>Casa possui 2 quartos</t>
+  </si>
+  <si>
+    <t>Valor de R$200 mil Avista, ou entrada de 60% + parcelas de R$1.500</t>
+  </si>
+  <si>
+    <t>COMPOSTA POR : 2 QUARTOS, SALA, COZINHA, BANHEIRO, ÁREA GOOURMET CO...</t>
+  </si>
+  <si>
+    <t>Ótima Oportunidade pra você adquirir seu Imóvel Novo, com uma condição especial !</t>
+  </si>
+  <si>
+    <t>2 quartos</t>
+  </si>
+  <si>
+    <t>Localizada no condomínio Long Beach - Unamar 📌</t>
+  </si>
+  <si>
+    <t>2 quartos sendo 1 suíte</t>
+  </si>
+  <si>
+    <t>Realize o sonho da casa própria com Fernanda Queiroz Corretora de Imóveis</t>
+  </si>
+  <si>
+    <t>Rua Cherne, Vivamar Tamoios</t>
+  </si>
+  <si>
+    <t>Piscina, espaço gourmet, salão de jogos, business lounge,...</t>
+  </si>
+  <si>
+    <t>PRONTO ENTREGA</t>
+  </si>
+  <si>
+    <t>CASA COMPOSTA POR 2 QUARTOS (SENDO1 SUÍTE), SALA COM COZINHA AMERICANA, BANHEIRO SOCIAL, ÁREA DE SERVIÇO, ÁREA GOURMET, PISCINA,...</t>
   </si>
   <si>
     <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
   </si>
   <si>
-    <t>oportunidade , 2 casas a venda no mesmo quintal , com 290 m2 de terreno com espaço pra garagem ate 4 carros! piscina de plástico podendo ser feita uma área gourmet com churrasqueir...</t>
-  </si>
-  <si>
-    <t>Casa duplex em Cabo Frio, 3 quartos, 1 suíte, dois banheiros, sala de jantar e sala de estar, área gormet com churrasqueira, fogão a lenha, sauna e piscina. Portão automático, quin...</t>
-  </si>
-  <si>
-    <t>Maravilhosa casa 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>VENHA REALIZAR O SONHO DA CASA PRÓPRIA. 🏠🥰</t>
-  </si>
-  <si>
-    <t>Casa semi-mobiliada, independente e em boa localização! O imóvel tem 200m² de área construída e terreno de 420m², bairro tranquilo, a 5 minutos da praia do Peró, 10 minutos do cent...</t>
-  </si>
-  <si>
-    <t>Excelente casa 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Linda Casa Linear em Unamar.</t>
-  </si>
-  <si>
-    <t>condomínio R$ 687 IPTU R$ 111</t>
-  </si>
-  <si>
-    <t>Ótimo apartamento disponível para locação e venda, com excelente localização, próximo a praia. Composto de 2 quartos, sendo 1 suíte com varanda, sala em 2 ambientes com varanda, ba...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 139 IPTU R$ 150</t>
-  </si>
-  <si>
-    <t>IPTU R$ 100</t>
-  </si>
-  <si>
-    <t>mais</t>
-  </si>
-  <si>
-    <t>"Quadra Recreativa Descoberta</t>
-  </si>
-  <si>
-    <t>Braga, apartamento todo avarandado com sala em 2 ambientes, 2 quartos sendo 1 suíte, cozinha com área de serviço e banheiro social. Imóvel claro e arejado. Vista livre. 2 vagas de...</t>
-  </si>
-  <si>
-    <t>Imagine poder se encantar todos os dias com a beleza de uma das praias mais lindas do país, a Praia do Forte, cartão postal de Cabo Frio. Que maravilha hein! Melhor ainda, se for d...</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 075.292</t>
-  </si>
-  <si>
-    <t>IMOBILIÁRIA MAGDALA FURTADO VENDE:</t>
-  </si>
-  <si>
-    <t>Composta por :</t>
-  </si>
-  <si>
-    <t>Excelente 2 quartos, apto de frente, sala ampla, cozinha, dependência completa (espaço para uma cama de casal), 2 vagas na garagem, 3 varandas, muito ventilado, 1 quadra da Praia d...</t>
-  </si>
-  <si>
-    <t>CASA COMPOSTA POR 2 QUARTOS (SENDO 1 SUÍTE), SALA COM COZINHA AMERICANA, BANHEIRO SOCIAL, ÁREA DE SERVIÇO, ÁREA GOURMET, PISCINA E VAGA PARA 5 CARROS.</t>
-  </si>
-  <si>
-    <t>📍Imóvel localizado em Unamar</t>
-  </si>
-  <si>
-    <t>Casa com 2 dormitório à venda, 56 m² por R$ 135.000 - Unamar - Cabo Frio/RJ</t>
-  </si>
-  <si>
-    <t>corretor</t>
-  </si>
-  <si>
-    <t>Avenida Gravatá, Nova California Tamoios</t>
-  </si>
-  <si>
-    <t>Salão de Festas Adulto e Infantil</t>
-  </si>
-  <si>
-    <t>Estrada Monte Alegre, Monte Alegre</t>
-  </si>
-  <si>
-    <t>Rua Ezequiel Pereira, Jardim Esperanca</t>
-  </si>
-  <si>
-    <t>CASA BELÍSSIMA COM FINO ACABAMENTO.</t>
-  </si>
-  <si>
-    <t>Guriri, Cabo Frio</t>
-  </si>
-  <si>
-    <t>✅2 quartos, sendo 1 suíte</t>
-  </si>
-  <si>
-    <t>Braga, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Cód: JMC-018-1</t>
-  </si>
-  <si>
-    <t>Composto por:</t>
-  </si>
-  <si>
-    <t>Descrição do imóvel:</t>
-  </si>
-  <si>
-    <t>loja</t>
+    <t>Rua das Pacas, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis...</t>
+  </si>
+  <si>
+    <t>3 banheiros</t>
+  </si>
+  <si>
+    <t>Valor: R$500 mil a vista / Aceitamos proposta</t>
+  </si>
+  <si>
+    <t>Banheiro social</t>
+  </si>
+  <si>
+    <t>CRECI/RJ: 01 074.981</t>
+  </si>
+  <si>
+    <t>74 m²</t>
+  </si>
+  <si>
+    <t>Logo na entrada, uma área de lazer espaçosa com piscina e...</t>
+  </si>
+  <si>
+    <t>Apartamento charmoso, muito confortável, bem arejado e à 100m da praia. Ao entrar no imóvel se de...</t>
+  </si>
+  <si>
+    <t>Rua Orlando Bragança, Unamar</t>
+  </si>
+  <si>
+    <t>Tem um maravilhoso Acabamento!</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Unamar</t>
+  </si>
+  <si>
+    <t>Unamar, Cabo Frio</t>
+  </si>
+  <si>
+    <t>LINDO DUPLEX DENTRO D...</t>
+  </si>
+  <si>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>Cozinha americana</t>
+  </si>
+  <si>
+    <t>Imóvel com:</t>
+  </si>
+  <si>
+    <t>Sala em 2 ambientes</t>
+  </si>
+  <si>
+    <t>Área de serviço</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Rua Aleixo Netto, Santa Lúcia</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Co...</t>
   </si>
   <si>
     <t>150 m²</t>
   </si>
   <si>
-    <t>Sauna co...</t>
+    <t>60 m²</t>
+  </si>
+  <si>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>Banheiro</t>
+  </si>
+  <si>
+    <t>2 quartos (sendo 1 suít...</t>
+  </si>
+  <si>
+    <t>71 m²</t>
+  </si>
+  <si>
+    <t>Sacada</t>
+  </si>
+  <si>
+    <t>Casa em Condomínio de Alto padrão</t>
+  </si>
+  <si>
+    <t>Piscina</t>
+  </si>
+  <si>
+    <t>Entre em...</t>
+  </si>
+  <si>
+    <t>61 - 117 m²</t>
+  </si>
+  <si>
+    <t>Jardim Excelsior, Cabo Frio</t>
   </si>
   <si>
     <t>Praia do Forte, Cabo Frio</t>
   </si>
   <si>
-    <t>código do imóvel : JMP-039</t>
-  </si>
-  <si>
-    <t>250 m²</t>
-  </si>
-  <si>
-    <t>Cód: JMC-018-5</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>200 m²</t>
-  </si>
-  <si>
-    <t>CR...</t>
-  </si>
-  <si>
-    <t>✅Banheiro social</t>
-  </si>
-  <si>
-    <t>Avenida do Contorno, Braga</t>
-  </si>
-  <si>
-    <t>80 m²</t>
-  </si>
-  <si>
-    <t>COM APROXIMADAMENTE 70...</t>
-  </si>
-  <si>
-    <t>✔️2 quartos, sendo 1 suíte</t>
-  </si>
-  <si>
-    <t>Excelente casa com 2 quarto, sala, cozinha americana, banheiro social,</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>85 m²</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>Casa com 3 quartos, sendo 1 suíte, sala, cozinha americana, 3 banheiros, área de serviço, quintal, ár...</t>
-  </si>
-  <si>
-    <t>CASA COM 3 QUARTOS, SENDO 2 SUÍTES, BANHEIRO SOCIAL, HIDROMASSAGEM, ÁREA DE SERVIÇO,...</t>
-  </si>
-  <si>
-    <t>✅Sala</t>
-  </si>
-  <si>
-    <t>108 m²</t>
-  </si>
-  <si>
-    <t>CASA DE 2 QUARTOS SENDO UMA SUÍTE SALA COZINHA AMERICANA BANH...</t>
-  </si>
-  <si>
-    <t>✔️Sal...</t>
-  </si>
-  <si>
-    <t>ár...</t>
-  </si>
-  <si>
-    <t>Casa composta por 2 quarto, sala, cozinha americana, banheiro social, varanda, área de serviço e área gourm...</t>
-  </si>
-  <si>
-    <t>Avenida Comandante Álvaro Martins, Mata da Praia</t>
+    <t>300 m²</t>
+  </si>
+  <si>
+    <t>Garagem para 3 carro</t>
+  </si>
+  <si>
+    <t>155 m²</t>
+  </si>
+  <si>
+    <t>Área de Serviço</t>
+  </si>
+  <si>
+    <t>Composta por</t>
+  </si>
+  <si>
+    <t>área gourmet com lavabo</t>
+  </si>
+  <si>
+    <t>277 m²</t>
+  </si>
+  <si>
+    <t>97 m²</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Chuveirão</t>
+  </si>
+  <si>
+    <t>2 Banheir...</t>
+  </si>
+  <si>
+    <t>Garagem p/ 2 carros</t>
+  </si>
+  <si>
+    <t>chuveirão</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>2 quartos sendo 1 suíte</t>
-  </si>
-  <si>
-    <t>CASA DE 2 QUARTOS SENDO UMA SUÍTE, SALA COZINHA AM...</t>
-  </si>
-  <si>
-    <t>Avenida Independência, Unamar</t>
-  </si>
-  <si>
-    <t>✅Cozinha Americana</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>151 - 158 m²</t>
-  </si>
-  <si>
-    <t>sala, cozin...</t>
-  </si>
-  <si>
-    <t>Centro Hipico Tamoios, Cabo Frio</t>
-  </si>
-  <si>
-    <t>71 m²</t>
-  </si>
-  <si>
-    <t>Aquariús, Cabo Frio</t>
-  </si>
-  <si>
-    <t>70 m²</t>
-  </si>
-  <si>
-    <t>✅Varanda...</t>
-  </si>
-  <si>
-    <t>Avenida Beira-mar, Sambura Tamoios</t>
-  </si>
-  <si>
-    <t>215 m²</t>
-  </si>
-  <si>
-    <t>160 m²</t>
-  </si>
-  <si>
-    <t>100 m²</t>
-  </si>
-  <si>
-    <t>56 m²</t>
+    <t>Você ainda tem a op...</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Área Gourmet</t>
+  </si>
+  <si>
+    <t>Área Gourmet com Piscina</t>
+  </si>
+  <si>
+    <t>Quintal gra...</t>
+  </si>
+  <si>
+    <t>112 m²</t>
+  </si>
+  <si>
+    <t>Ótim...</t>
+  </si>
+  <si>
+    <t>Fino acabament...</t>
+  </si>
+  <si>
+    <t>52 m²</t>
   </si>
   <si>
     <t>59 m²</t>
-  </si>
-  <si>
-    <t>3 - 4</t>
-  </si>
-  <si>
-    <t>69 m²</t>
-  </si>
-  <si>
-    <t>Rua Vênus, Verao Vermelho Tamoios</t>
-  </si>
-  <si>
-    <t>74 m²</t>
-  </si>
-  <si>
-    <t>220 m²</t>
   </si>
 </sst>
 </file>
@@ -740,13 +761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -795,8 +816,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -804,880 +831,901 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>119</v>
+      </c>
+      <c r="M3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>93</v>
+      </c>
+      <c r="M4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="N5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>114</v>
+      </c>
+      <c r="L6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="M8" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="P8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="s">
         <v>89</v>
       </c>
-      <c r="N9" t="s">
-        <v>99</v>
-      </c>
-      <c r="O9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" t="s">
-        <v>89</v>
-      </c>
-      <c r="N11" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>84</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" t="s">
         <v>81</v>
       </c>
-      <c r="I14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" t="s">
-        <v>120</v>
-      </c>
-      <c r="N14" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" t="s">
-        <v>87</v>
-      </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="Q14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>89</v>
+      </c>
+      <c r="R14" t="s">
+        <v>119</v>
+      </c>
+      <c r="S14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>94</v>
+      </c>
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="L16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>68</v>
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="O18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="N19" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>89</v>
+      </c>
+      <c r="R19" t="s">
+        <v>89</v>
+      </c>
+      <c r="S19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="L20" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N20" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="O20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>105</v>
+      </c>
+      <c r="P20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="L21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="N21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>94</v>
+      </c>
+      <c r="P21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>105</v>
+      </c>
+      <c r="R21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="M22" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="N22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="O22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
